--- a/Document/6_Axis_Robot.xlsx
+++ b/Document/6_Axis_Robot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KkangJun\Desktop\Project\6_Axis_Robot\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF1027E-78B6-4F8E-9CA0-8C0B3EB3058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8AF018-90B9-49F4-BCD6-09623A919B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{D34C6C17-2872-4C3C-BCF1-01C0C1309478}"/>
+    <workbookView xWindow="19090" yWindow="-3010" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{D34C6C17-2872-4C3C-BCF1-01C0C1309478}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="358">
   <si>
     <t>Software Architecture</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1336,10 +1336,6 @@
   </si>
   <si>
     <t>Hello robot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Wake-up words for learning	</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1947,7 +1943,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2071,27 +2067,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2122,6 +2133,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2143,41 +2157,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2742,74 +2732,74 @@
   <sheetData>
     <row r="1" spans="2:33" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:33" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="54"/>
+      <c r="X2" s="54"/>
+      <c r="Y2" s="54"/>
+      <c r="Z2" s="54"/>
+      <c r="AA2" s="54"/>
+      <c r="AB2" s="54"/>
+      <c r="AC2" s="54"/>
+      <c r="AD2" s="54"/>
+      <c r="AE2" s="54"/>
+      <c r="AF2" s="54"/>
+      <c r="AG2" s="55"/>
     </row>
     <row r="3" spans="2:33" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52"/>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52"/>
-      <c r="X3" s="52"/>
-      <c r="Y3" s="52"/>
-      <c r="Z3" s="52"/>
-      <c r="AA3" s="52"/>
-      <c r="AB3" s="52"/>
-      <c r="AC3" s="52"/>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52"/>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+      <c r="X3" s="57"/>
+      <c r="Y3" s="57"/>
+      <c r="Z3" s="57"/>
+      <c r="AA3" s="57"/>
+      <c r="AB3" s="57"/>
+      <c r="AC3" s="57"/>
+      <c r="AD3" s="57"/>
+      <c r="AE3" s="57"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="58"/>
     </row>
     <row r="4" spans="2:33" ht="16.5" customHeight="1">
       <c r="B4" s="5"/>
@@ -2841,10 +2831,10 @@
       <c r="AB4" s="5"/>
       <c r="AC4" s="5"/>
       <c r="AD4" s="5"/>
-      <c r="AE4" s="57" t="s">
+      <c r="AE4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="AF4" s="57"/>
+      <c r="AF4" s="62"/>
       <c r="AG4" s="22"/>
     </row>
     <row r="5" spans="2:33" ht="16.5" customHeight="1">
@@ -2877,10 +2867,10 @@
       <c r="AB5" s="5"/>
       <c r="AC5" s="5"/>
       <c r="AD5" s="5"/>
-      <c r="AE5" s="55" t="s">
+      <c r="AE5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AF5" s="55"/>
+      <c r="AF5" s="60"/>
       <c r="AG5" s="9"/>
     </row>
     <row r="7" spans="2:33">
@@ -2980,7 +2970,7 @@
       </c>
     </row>
     <row r="8" spans="2:33">
-      <c r="B8" s="54">
+      <c r="B8" s="59">
         <v>2024.12</v>
       </c>
       <c r="C8" s="3"/>
@@ -3016,7 +3006,7 @@
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="2:33">
-      <c r="B9" s="54"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -3058,7 +3048,7 @@
       </c>
     </row>
     <row r="11" spans="2:33">
-      <c r="B11" s="54">
+      <c r="B11" s="59">
         <v>2025.1</v>
       </c>
       <c r="C11" s="2"/>
@@ -3094,7 +3084,7 @@
       <c r="AG11" s="7"/>
     </row>
     <row r="12" spans="2:33">
-      <c r="B12" s="54"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="9"/>
       <c r="D12" s="2" t="s">
         <v>157</v>
@@ -3136,7 +3126,7 @@
       <c r="AG12" s="9"/>
     </row>
     <row r="14" spans="2:33">
-      <c r="B14" s="54">
+      <c r="B14" s="59">
         <v>2025.2</v>
       </c>
       <c r="C14" s="1"/>
@@ -3172,7 +3162,7 @@
       <c r="AG14" s="3"/>
     </row>
     <row r="15" spans="2:33">
-      <c r="B15" s="54"/>
+      <c r="B15" s="59"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="9"/>
@@ -3206,1144 +3196,1173 @@
       <c r="AG15" s="3"/>
     </row>
     <row r="18" spans="2:35" ht="20.25">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="61"/>
+      <c r="AA18" s="61"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
       <c r="AI18" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="2:35">
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
+      <c r="R19" s="51"/>
+      <c r="S19" s="51"/>
+      <c r="T19" s="51"/>
+      <c r="U19" s="51"/>
+      <c r="V19" s="51"/>
+      <c r="W19" s="51"/>
+      <c r="X19" s="51"/>
+      <c r="Y19" s="51"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="51"/>
+      <c r="AB19" s="51"/>
+      <c r="AC19" s="51"/>
+      <c r="AD19" s="51"/>
+      <c r="AE19" s="51"/>
+      <c r="AF19" s="51"/>
+      <c r="AG19" s="51"/>
       <c r="AI19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:35">
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="47" t="s">
+      <c r="C20" s="50"/>
+      <c r="D20" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="51"/>
+      <c r="O20" s="51"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="51"/>
+      <c r="R20" s="51"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="51"/>
+      <c r="AB20" s="51"/>
+      <c r="AC20" s="51"/>
+      <c r="AD20" s="51"/>
+      <c r="AE20" s="51"/>
+      <c r="AF20" s="51"/>
+      <c r="AG20" s="51"/>
     </row>
     <row r="21" spans="2:35">
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="50"/>
+      <c r="D21" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="47"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
+      <c r="R21" s="51"/>
+      <c r="S21" s="51"/>
+      <c r="T21" s="51"/>
+      <c r="U21" s="51"/>
+      <c r="V21" s="51"/>
+      <c r="W21" s="51"/>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="51"/>
+      <c r="AB21" s="51"/>
+      <c r="AC21" s="51"/>
+      <c r="AD21" s="51"/>
+      <c r="AE21" s="51"/>
+      <c r="AF21" s="51"/>
+      <c r="AG21" s="51"/>
     </row>
     <row r="22" spans="2:35">
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="47" t="s">
+      <c r="C22" s="50"/>
+      <c r="D22" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="51"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="51"/>
+      <c r="P22" s="51"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="51"/>
+      <c r="S22" s="51"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="51"/>
+      <c r="V22" s="51"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="51"/>
+      <c r="AB22" s="51"/>
+      <c r="AC22" s="51"/>
+      <c r="AD22" s="51"/>
+      <c r="AE22" s="51"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
     </row>
     <row r="23" spans="2:35">
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="47" t="s">
+      <c r="C23" s="50"/>
+      <c r="D23" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
+      <c r="R23" s="51"/>
+      <c r="S23" s="51"/>
+      <c r="T23" s="51"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="51"/>
+      <c r="AB23" s="51"/>
+      <c r="AC23" s="51"/>
+      <c r="AD23" s="51"/>
+      <c r="AE23" s="51"/>
+      <c r="AF23" s="51"/>
+      <c r="AG23" s="51"/>
       <c r="AI23" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="24" spans="2:35">
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="47" t="s">
+      <c r="C24" s="50"/>
+      <c r="D24" s="51" t="s">
         <v>186</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="47"/>
-      <c r="AC24" s="47"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="47"/>
-      <c r="AF24" s="47"/>
-      <c r="AG24" s="47"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="51"/>
+      <c r="L24" s="51"/>
+      <c r="M24" s="51"/>
+      <c r="N24" s="51"/>
+      <c r="O24" s="51"/>
+      <c r="P24" s="51"/>
+      <c r="Q24" s="51"/>
+      <c r="R24" s="51"/>
+      <c r="S24" s="51"/>
+      <c r="T24" s="51"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="51"/>
+      <c r="AB24" s="51"/>
+      <c r="AC24" s="51"/>
+      <c r="AD24" s="51"/>
+      <c r="AE24" s="51"/>
+      <c r="AF24" s="51"/>
+      <c r="AG24" s="51"/>
       <c r="AI24" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="25" spans="2:35">
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="47" t="s">
+      <c r="C25" s="50"/>
+      <c r="D25" s="51" t="s">
         <v>187</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="47"/>
-      <c r="AB25" s="47"/>
-      <c r="AC25" s="47"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="47"/>
-      <c r="AF25" s="47"/>
-      <c r="AG25" s="47"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="51"/>
+      <c r="T25" s="51"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="51"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="51"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="51"/>
+      <c r="AG25" s="51"/>
     </row>
     <row r="26" spans="2:35">
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47" t="s">
+      <c r="C26" s="50"/>
+      <c r="D26" s="51" t="s">
         <v>188</v>
       </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="47"/>
-      <c r="AC26" s="47"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="51"/>
+      <c r="O26" s="51"/>
+      <c r="P26" s="51"/>
+      <c r="Q26" s="51"/>
+      <c r="R26" s="51"/>
+      <c r="S26" s="51"/>
+      <c r="T26" s="51"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="51"/>
+      <c r="AB26" s="51"/>
+      <c r="AC26" s="51"/>
+      <c r="AD26" s="51"/>
+      <c r="AE26" s="51"/>
+      <c r="AF26" s="51"/>
+      <c r="AG26" s="51"/>
       <c r="AI26" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="27" spans="2:35">
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" s="50"/>
+      <c r="D27" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
+      <c r="R27" s="51"/>
+      <c r="S27" s="51"/>
+      <c r="T27" s="51"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="51"/>
+      <c r="AB27" s="51"/>
+      <c r="AC27" s="51"/>
+      <c r="AD27" s="51"/>
+      <c r="AE27" s="51"/>
+      <c r="AF27" s="51"/>
+      <c r="AG27" s="51"/>
+    </row>
+    <row r="28" spans="2:35">
+      <c r="B28" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="47"/>
-    </row>
-    <row r="28" spans="2:35">
-      <c r="B28" s="46" t="s">
+      <c r="C28" s="50"/>
+      <c r="D28" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
+      <c r="R28" s="51"/>
+      <c r="S28" s="51"/>
+      <c r="T28" s="51"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="51"/>
+      <c r="AB28" s="51"/>
+      <c r="AC28" s="51"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="51"/>
+      <c r="AF28" s="51"/>
+      <c r="AG28" s="51"/>
+    </row>
+    <row r="29" spans="2:35">
+      <c r="B29" s="50" t="s">
         <v>340</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="47"/>
-      <c r="AB28" s="47"/>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="47"/>
-    </row>
-    <row r="29" spans="2:35">
-      <c r="B29" s="46" t="s">
+      <c r="C29" s="50"/>
+      <c r="D29" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
+      <c r="R29" s="51"/>
+      <c r="S29" s="51"/>
+      <c r="T29" s="51"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="51"/>
+      <c r="AB29" s="51"/>
+      <c r="AC29" s="51"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="51"/>
+      <c r="AF29" s="51"/>
+      <c r="AG29" s="51"/>
+    </row>
+    <row r="30" spans="2:35">
+      <c r="B30" s="50" t="s">
         <v>341</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="47" t="s">
-        <v>191</v>
-      </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="47"/>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="47"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="47"/>
-      <c r="AF29" s="47"/>
-      <c r="AG29" s="47"/>
-    </row>
-    <row r="30" spans="2:35">
-      <c r="B30" s="46" t="s">
+      <c r="C30" s="50"/>
+      <c r="D30" s="51" t="s">
+        <v>182</v>
+      </c>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="51"/>
+      <c r="AB30" s="51"/>
+      <c r="AC30" s="51"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="51"/>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="51"/>
+    </row>
+    <row r="31" spans="2:35">
+      <c r="B31" s="50" t="s">
         <v>342</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="47"/>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="47"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="47"/>
-      <c r="AF30" s="47"/>
-      <c r="AG30" s="47"/>
-    </row>
-    <row r="31" spans="2:35">
-      <c r="B31" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="47" t="s">
+      <c r="C31" s="50"/>
+      <c r="D31" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="47"/>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="47"/>
-      <c r="AF31" s="47"/>
-      <c r="AG31" s="47"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="51"/>
+      <c r="AF31" s="51"/>
+      <c r="AG31" s="51"/>
       <c r="AI31" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="32" spans="2:35">
-      <c r="B32" s="46" t="s">
+      <c r="B32" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="51"/>
+    </row>
+    <row r="33" spans="2:35">
+      <c r="B33" s="50" t="s">
         <v>344</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="47" t="s">
+      <c r="C33" s="50"/>
+      <c r="D33" s="51" t="s">
         <v>218</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="47"/>
-      <c r="AC32" s="47"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="47"/>
-      <c r="AF32" s="47"/>
-      <c r="AG32" s="47"/>
-    </row>
-    <row r="33" spans="2:35">
-      <c r="B33" s="46" t="s">
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="51"/>
+    </row>
+    <row r="34" spans="2:35">
+      <c r="B34" s="50" t="s">
         <v>345</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47" t="s">
-        <v>218</v>
-      </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="47"/>
-      <c r="AC33" s="47"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="47"/>
-      <c r="AF33" s="47"/>
-      <c r="AG33" s="47"/>
-    </row>
-    <row r="34" spans="2:35">
-      <c r="B34" s="46" t="s">
+      <c r="C34" s="50"/>
+      <c r="D34" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51"/>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+    </row>
+    <row r="35" spans="2:35">
+      <c r="B35" s="50" t="s">
         <v>346</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="47" t="s">
-        <v>206</v>
-      </c>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="47"/>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="47"/>
-      <c r="AB34" s="47"/>
-      <c r="AC34" s="47"/>
-      <c r="AD34" s="47"/>
-      <c r="AE34" s="47"/>
-      <c r="AF34" s="47"/>
-      <c r="AG34" s="47"/>
-    </row>
-    <row r="35" spans="2:35">
-      <c r="B35" s="46" t="s">
-        <v>347</v>
-      </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47" t="s">
+      <c r="C35" s="50"/>
+      <c r="D35" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="47"/>
-      <c r="K35" s="47"/>
-      <c r="L35" s="47"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="47"/>
-      <c r="S35" s="47"/>
-      <c r="T35" s="47"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="47"/>
-      <c r="W35" s="47"/>
-      <c r="X35" s="47"/>
-      <c r="Y35" s="47"/>
-      <c r="Z35" s="47"/>
-      <c r="AA35" s="47"/>
-      <c r="AB35" s="47"/>
-      <c r="AC35" s="47"/>
-      <c r="AD35" s="47"/>
-      <c r="AE35" s="47"/>
-      <c r="AF35" s="47"/>
-      <c r="AG35" s="47"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="51"/>
+      <c r="T35" s="51"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="51"/>
+      <c r="AA35" s="51"/>
+      <c r="AB35" s="51"/>
+      <c r="AC35" s="51"/>
+      <c r="AD35" s="51"/>
+      <c r="AE35" s="51"/>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="51"/>
       <c r="AI35" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="36" spans="2:35">
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51" t="s">
+        <v>229</v>
+      </c>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="51"/>
+      <c r="AG36" s="51"/>
+    </row>
+    <row r="37" spans="2:35">
+      <c r="B37" s="50" t="s">
         <v>348</v>
       </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="47" t="s">
-        <v>229</v>
-      </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
-      <c r="U36" s="47"/>
-      <c r="V36" s="47"/>
-      <c r="W36" s="47"/>
-      <c r="X36" s="47"/>
-      <c r="Y36" s="47"/>
-      <c r="Z36" s="47"/>
-      <c r="AA36" s="47"/>
-      <c r="AB36" s="47"/>
-      <c r="AC36" s="47"/>
-      <c r="AD36" s="47"/>
-      <c r="AE36" s="47"/>
-      <c r="AF36" s="47"/>
-      <c r="AG36" s="47"/>
-    </row>
-    <row r="37" spans="2:35">
-      <c r="B37" s="46" t="s">
+      <c r="C37" s="50"/>
+      <c r="D37" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
+    </row>
+    <row r="38" spans="2:35">
+      <c r="B38" s="50" t="s">
         <v>349</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="47"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="47"/>
-      <c r="R37" s="47"/>
-      <c r="S37" s="47"/>
-      <c r="T37" s="47"/>
-      <c r="U37" s="47"/>
-      <c r="V37" s="47"/>
-      <c r="W37" s="47"/>
-      <c r="X37" s="47"/>
-      <c r="Y37" s="47"/>
-      <c r="Z37" s="47"/>
-      <c r="AA37" s="47"/>
-      <c r="AB37" s="47"/>
-      <c r="AC37" s="47"/>
-      <c r="AD37" s="47"/>
-      <c r="AE37" s="47"/>
-      <c r="AF37" s="47"/>
-      <c r="AG37" s="47"/>
-    </row>
-    <row r="38" spans="2:35">
-      <c r="B38" s="46" t="s">
+      <c r="C38" s="50"/>
+      <c r="D38" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="51"/>
+      <c r="AA38" s="51"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="51"/>
+      <c r="AD38" s="51"/>
+      <c r="AE38" s="51"/>
+      <c r="AF38" s="51"/>
+      <c r="AG38" s="51"/>
+    </row>
+    <row r="39" spans="2:35">
+      <c r="B39" s="50" t="s">
         <v>350</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="47" t="s">
-        <v>230</v>
-      </c>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="47"/>
-      <c r="V38" s="47"/>
-      <c r="W38" s="47"/>
-      <c r="X38" s="47"/>
-      <c r="Y38" s="47"/>
-      <c r="Z38" s="47"/>
-      <c r="AA38" s="47"/>
-      <c r="AB38" s="47"/>
-      <c r="AC38" s="47"/>
-      <c r="AD38" s="47"/>
-      <c r="AE38" s="47"/>
-      <c r="AF38" s="47"/>
-      <c r="AG38" s="47"/>
-    </row>
-    <row r="39" spans="2:35">
-      <c r="B39" s="46" t="s">
+      <c r="C39" s="50"/>
+      <c r="D39" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+      <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+    </row>
+    <row r="40" spans="2:35">
+      <c r="B40" s="50" t="s">
         <v>351</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="47" t="s">
-        <v>231</v>
-      </c>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="47"/>
-      <c r="V39" s="47"/>
-      <c r="W39" s="47"/>
-      <c r="X39" s="47"/>
-      <c r="Y39" s="47"/>
-      <c r="Z39" s="47"/>
-      <c r="AA39" s="47"/>
-      <c r="AB39" s="47"/>
-      <c r="AC39" s="47"/>
-      <c r="AD39" s="47"/>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47"/>
-      <c r="AG39" s="47"/>
-    </row>
-    <row r="40" spans="2:35">
-      <c r="B40" s="46" t="s">
-        <v>352</v>
-      </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47" t="s">
+      <c r="C40" s="50"/>
+      <c r="D40" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="47"/>
-      <c r="W40" s="47"/>
-      <c r="X40" s="47"/>
-      <c r="Y40" s="47"/>
-      <c r="Z40" s="47"/>
-      <c r="AA40" s="47"/>
-      <c r="AB40" s="47"/>
-      <c r="AC40" s="47"/>
-      <c r="AD40" s="47"/>
-      <c r="AE40" s="47"/>
-      <c r="AF40" s="47"/>
-      <c r="AG40" s="47"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="51"/>
+      <c r="AG40" s="51"/>
       <c r="AI40" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="41" spans="2:35">
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="C41" s="50"/>
+      <c r="D41" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="51"/>
+      <c r="AC41" s="51"/>
+      <c r="AD41" s="51"/>
+      <c r="AE41" s="51"/>
+      <c r="AF41" s="51"/>
+      <c r="AG41" s="51"/>
+    </row>
+    <row r="42" spans="2:35">
+      <c r="B42" s="45" t="s">
         <v>353</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="47"/>
-      <c r="K41" s="47"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="47"/>
-      <c r="O41" s="47"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="47"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="47"/>
-      <c r="Y41" s="47"/>
-      <c r="Z41" s="47"/>
-      <c r="AA41" s="47"/>
-      <c r="AB41" s="47"/>
-      <c r="AC41" s="47"/>
-      <c r="AD41" s="47"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="47"/>
-      <c r="AG41" s="47"/>
-    </row>
-    <row r="42" spans="2:35">
-      <c r="B42" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="47" t="s">
+      <c r="C42" s="46"/>
+      <c r="D42" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="47"/>
-      <c r="K42" s="47"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="47"/>
-      <c r="N42" s="47"/>
-      <c r="O42" s="47"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="47"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="47"/>
-      <c r="T42" s="47"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="47"/>
-      <c r="W42" s="47"/>
-      <c r="X42" s="47"/>
-      <c r="Y42" s="47"/>
-      <c r="Z42" s="47"/>
-      <c r="AA42" s="47"/>
-      <c r="AB42" s="47"/>
-      <c r="AC42" s="47"/>
-      <c r="AD42" s="47"/>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="47"/>
-      <c r="AG42" s="47"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="51"/>
+      <c r="W42" s="51"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="51"/>
+      <c r="Z42" s="51"/>
+      <c r="AA42" s="51"/>
+      <c r="AB42" s="51"/>
+      <c r="AC42" s="51"/>
+      <c r="AD42" s="51"/>
+      <c r="AE42" s="51"/>
+      <c r="AF42" s="51"/>
+      <c r="AG42" s="51"/>
       <c r="AI42" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="43" spans="2:35">
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="45" t="s">
+        <v>354</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="52" t="s">
+        <v>259</v>
+      </c>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="48"/>
+      <c r="W43" s="48"/>
+      <c r="X43" s="48"/>
+      <c r="Y43" s="48"/>
+      <c r="Z43" s="48"/>
+      <c r="AA43" s="48"/>
+      <c r="AB43" s="48"/>
+      <c r="AC43" s="48"/>
+      <c r="AD43" s="48"/>
+      <c r="AE43" s="48"/>
+      <c r="AF43" s="48"/>
+      <c r="AG43" s="49"/>
+    </row>
+    <row r="44" spans="2:35">
+      <c r="B44" s="45" t="s">
         <v>355</v>
       </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="44"/>
-      <c r="J43" s="44"/>
-      <c r="K43" s="44"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
-      <c r="N43" s="44"/>
-      <c r="O43" s="44"/>
-      <c r="P43" s="44"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
-      <c r="S43" s="44"/>
-      <c r="T43" s="44"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="44"/>
-      <c r="W43" s="44"/>
-      <c r="X43" s="44"/>
-      <c r="Y43" s="44"/>
-      <c r="Z43" s="44"/>
-      <c r="AA43" s="44"/>
-      <c r="AB43" s="44"/>
-      <c r="AC43" s="44"/>
-      <c r="AD43" s="44"/>
-      <c r="AE43" s="44"/>
-      <c r="AF43" s="44"/>
-      <c r="AG43" s="45"/>
-    </row>
-    <row r="44" spans="2:35">
-      <c r="B44" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="43" t="s">
+      <c r="C44" s="46"/>
+      <c r="D44" s="52" t="s">
         <v>250</v>
       </c>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="44"/>
-      <c r="L44" s="44"/>
-      <c r="M44" s="44"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
-      <c r="S44" s="44"/>
-      <c r="T44" s="44"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="44"/>
-      <c r="W44" s="44"/>
-      <c r="X44" s="44"/>
-      <c r="Y44" s="44"/>
-      <c r="Z44" s="44"/>
-      <c r="AA44" s="44"/>
-      <c r="AB44" s="44"/>
-      <c r="AC44" s="44"/>
-      <c r="AD44" s="44"/>
-      <c r="AE44" s="44"/>
-      <c r="AF44" s="44"/>
-      <c r="AG44" s="45"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="48"/>
+      <c r="W44" s="48"/>
+      <c r="X44" s="48"/>
+      <c r="Y44" s="48"/>
+      <c r="Z44" s="48"/>
+      <c r="AA44" s="48"/>
+      <c r="AB44" s="48"/>
+      <c r="AC44" s="48"/>
+      <c r="AD44" s="48"/>
+      <c r="AE44" s="48"/>
+      <c r="AF44" s="48"/>
+      <c r="AG44" s="49"/>
       <c r="AI44" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="45" spans="2:35">
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="45" t="s">
+        <v>356</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="48"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="48"/>
+      <c r="X45" s="48"/>
+      <c r="Y45" s="48"/>
+      <c r="Z45" s="48"/>
+      <c r="AA45" s="48"/>
+      <c r="AB45" s="48"/>
+      <c r="AC45" s="48"/>
+      <c r="AD45" s="48"/>
+      <c r="AE45" s="48"/>
+      <c r="AF45" s="48"/>
+      <c r="AG45" s="49"/>
+    </row>
+    <row r="46" spans="2:35">
+      <c r="B46" s="45" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="42"/>
-      <c r="D45" s="67" t="s">
-        <v>260</v>
-      </c>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
-      <c r="I45" s="44"/>
-      <c r="J45" s="44"/>
-      <c r="K45" s="44"/>
-      <c r="L45" s="44"/>
-      <c r="M45" s="44"/>
-      <c r="N45" s="44"/>
-      <c r="O45" s="44"/>
-      <c r="P45" s="44"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
-      <c r="S45" s="44"/>
-      <c r="T45" s="44"/>
-      <c r="U45" s="44"/>
-      <c r="V45" s="44"/>
-      <c r="W45" s="44"/>
-      <c r="X45" s="44"/>
-      <c r="Y45" s="44"/>
-      <c r="Z45" s="44"/>
-      <c r="AA45" s="44"/>
-      <c r="AB45" s="44"/>
-      <c r="AC45" s="44"/>
-      <c r="AD45" s="44"/>
-      <c r="AE45" s="44"/>
-      <c r="AF45" s="44"/>
-      <c r="AG45" s="45"/>
-    </row>
-    <row r="46" spans="2:35">
-      <c r="B46" s="41" t="s">
-        <v>358</v>
-      </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="76" t="s">
-        <v>338</v>
-      </c>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="44"/>
-      <c r="L46" s="44"/>
-      <c r="M46" s="44"/>
-      <c r="N46" s="44"/>
-      <c r="O46" s="44"/>
-      <c r="P46" s="44"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
-      <c r="S46" s="44"/>
-      <c r="T46" s="44"/>
-      <c r="U46" s="44"/>
-      <c r="V46" s="44"/>
-      <c r="W46" s="44"/>
-      <c r="X46" s="44"/>
-      <c r="Y46" s="44"/>
-      <c r="Z46" s="44"/>
-      <c r="AA46" s="44"/>
-      <c r="AB46" s="44"/>
-      <c r="AC46" s="44"/>
-      <c r="AD46" s="44"/>
-      <c r="AE46" s="44"/>
-      <c r="AF46" s="44"/>
-      <c r="AG46" s="45"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="47" t="s">
+        <v>337</v>
+      </c>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="48"/>
+      <c r="V46" s="48"/>
+      <c r="W46" s="48"/>
+      <c r="X46" s="48"/>
+      <c r="Y46" s="48"/>
+      <c r="Z46" s="48"/>
+      <c r="AA46" s="48"/>
+      <c r="AB46" s="48"/>
+      <c r="AC46" s="48"/>
+      <c r="AD46" s="48"/>
+      <c r="AE46" s="48"/>
+      <c r="AF46" s="48"/>
+      <c r="AG46" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:AG46"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:AG42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:AG43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:AG45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:AG40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:AG41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:AG44"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:AG32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:AG36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:AG35"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:AG39"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:AG33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:AG34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:AG38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:AG37"/>
+    <mergeCell ref="D22:AG22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:AG30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:AG31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:AG24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:AG25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:AG23"/>
     <mergeCell ref="B2:AG3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B11:B12"/>
@@ -4355,6 +4374,13 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:AG46"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:AG42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:AG43"/>
     <mergeCell ref="D21:AG21"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:AG29"/>
@@ -4364,42 +4390,6 @@
     <mergeCell ref="D26:AG26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:AG27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:AG24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:AG25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:AG23"/>
-    <mergeCell ref="D22:AG22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:AG30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:AG31"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:AG39"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:AG33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:AG34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:AG38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:AG37"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:AG32"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:AG36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:AG35"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:AG45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:AG40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:AG41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:AG44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4422,34 +4412,34 @@
   <sheetData>
     <row r="1" spans="2:17" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:17" ht="16.5" customHeight="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="60"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
     </row>
     <row r="3" spans="2:17" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="63"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="69"/>
     </row>
     <row r="4" spans="2:17">
       <c r="N4" s="8"/>
@@ -4493,40 +4483,40 @@
   <sheetData>
     <row r="1" spans="2:18" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:18">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="60"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
     </row>
     <row r="3" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="63"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="69"/>
     </row>
     <row r="5" spans="2:18">
       <c r="R5" s="8" t="s">
@@ -4565,10 +4555,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BDA344-E122-4C79-B3A0-906C429AA8A5}">
-  <dimension ref="B1:T64"/>
+  <dimension ref="B1:T63"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4580,44 +4570,44 @@
   <sheetData>
     <row r="1" spans="2:19" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:19">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="55"/>
     </row>
     <row r="3" spans="2:19" ht="17.25" thickBot="1">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
-      <c r="R3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="58"/>
     </row>
     <row r="5" spans="2:19" ht="24.95" customHeight="1">
       <c r="B5" s="23" t="s">
@@ -4673,7 +4663,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="73" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -4708,7 +4698,7 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="33">
-      <c r="B7" s="66"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="13" t="s">
         <v>66</v>
       </c>
@@ -4743,7 +4733,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="70" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -4781,7 +4771,7 @@
       <c r="S8" s="35"/>
     </row>
     <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="64"/>
+      <c r="B9" s="70"/>
       <c r="C9" s="13" t="s">
         <v>70</v>
       </c>
@@ -4819,7 +4809,7 @@
       <c r="S9" s="35"/>
     </row>
     <row r="10" spans="2:19" ht="33">
-      <c r="B10" s="64"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="13" t="s">
         <v>196</v>
       </c>
@@ -4854,7 +4844,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="33" customHeight="1">
-      <c r="B11" s="64"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="13" t="s">
         <v>67</v>
       </c>
@@ -4893,7 +4883,7 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="33" customHeight="1">
-      <c r="B12" s="64"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="13" t="s">
         <v>68</v>
       </c>
@@ -4928,7 +4918,7 @@
       </c>
     </row>
     <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="70" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -4959,7 +4949,7 @@
       </c>
     </row>
     <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="64"/>
+      <c r="B14" s="70"/>
       <c r="C14" s="13" t="s">
         <v>72</v>
       </c>
@@ -4986,7 +4976,7 @@
       </c>
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="64"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="13" t="s">
         <v>73</v>
       </c>
@@ -5013,7 +5003,7 @@
       </c>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="64"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="13" t="s">
         <v>74</v>
       </c>
@@ -5040,7 +5030,7 @@
       </c>
     </row>
     <row r="17" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="70" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -5067,7 +5057,7 @@
       </c>
     </row>
     <row r="18" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="64"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="13" t="s">
         <v>76</v>
       </c>
@@ -5097,146 +5087,145 @@
       </c>
     </row>
     <row r="21" spans="2:20" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
       <c r="T21" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="22" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="64" t="s">
         <v>275</v>
       </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="60"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="66"/>
       <c r="T22" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="23" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="63"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="69"/>
       <c r="T23" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="24" spans="2:20" ht="17.25" customHeight="1">
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
     </row>
     <row r="25" spans="2:20" ht="17.25">
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="71" t="s">
         <v>276</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="71"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="70" t="s">
         <v>282</v>
       </c>
-      <c r="C26" s="64"/>
+      <c r="C26" s="70"/>
       <c r="D26" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="70" t="s">
         <v>284</v>
       </c>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64" t="s">
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70" t="s">
         <v>286</v>
       </c>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="72"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="51" t="s">
         <v>219</v>
       </c>
-      <c r="C27" s="47"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="51" t="s">
         <v>288</v>
       </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -5246,18 +5235,18 @@
       <c r="N27" s="10"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="51" t="s">
         <v>220</v>
       </c>
-      <c r="C28" s="47"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="51" t="s">
         <v>289</v>
       </c>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -5267,18 +5256,18 @@
       <c r="N28" s="10"/>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="51" t="s">
         <v>280</v>
       </c>
-      <c r="C29" s="47"/>
+      <c r="C29" s="51"/>
       <c r="D29" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -5288,18 +5277,18 @@
       <c r="N29" s="10"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="51" t="s">
         <v>277</v>
       </c>
-      <c r="C30" s="47"/>
+      <c r="C30" s="51"/>
       <c r="D30" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="E30" s="47" t="s">
+      <c r="E30" s="51" t="s">
         <v>294</v>
       </c>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
       <c r="H30" s="13"/>
       <c r="I30" s="13" t="s">
         <v>296</v>
@@ -5321,18 +5310,18 @@
       </c>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="C31" s="47"/>
+      <c r="C31" s="51"/>
       <c r="D31" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="E31" s="47" t="s">
+      <c r="E31" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
@@ -5342,18 +5331,18 @@
       <c r="N31" s="13"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="51" t="s">
         <v>278</v>
       </c>
-      <c r="C32" s="47"/>
+      <c r="C32" s="51"/>
       <c r="D32" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="E32" s="47" t="s">
+      <c r="E32" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
       <c r="H32" s="13" t="s">
         <v>293</v>
       </c>
@@ -5385,16 +5374,16 @@
       <c r="D33" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="51" t="s">
         <v>292</v>
       </c>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
       <c r="H33" s="13" t="s">
         <v>293</v>
       </c>
       <c r="I33" s="13"/>
-      <c r="J33" s="74"/>
+      <c r="J33" s="44"/>
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
@@ -5407,18 +5396,18 @@
       <c r="O34" s="11"/>
     </row>
     <row r="35" spans="2:15">
-      <c r="B35" s="68" t="s">
+      <c r="B35" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="72"/>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="70" t="s">
         <v>304</v>
       </c>
-      <c r="C36" s="64"/>
+      <c r="C36" s="70"/>
       <c r="D36" s="13" t="s">
         <v>305</v>
       </c>
@@ -5427,10 +5416,10 @@
       </c>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="51" t="s">
         <v>303</v>
       </c>
-      <c r="C37" s="47"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="10" t="s">
         <v>312</v>
       </c>
@@ -5439,10 +5428,10 @@
       </c>
     </row>
     <row r="38" spans="2:15">
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="C38" s="47"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="10" t="s">
         <v>312</v>
       </c>
@@ -5454,10 +5443,10 @@
       </c>
     </row>
     <row r="39" spans="2:15">
-      <c r="B39" s="47" t="s">
+      <c r="B39" s="51" t="s">
         <v>308</v>
       </c>
-      <c r="C39" s="47"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="10" t="s">
         <v>312</v>
       </c>
@@ -5466,10 +5455,10 @@
       </c>
     </row>
     <row r="40" spans="2:15">
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="51" t="s">
         <v>309</v>
       </c>
-      <c r="C40" s="47"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="10" t="s">
         <v>313</v>
       </c>
@@ -5478,10 +5467,10 @@
       </c>
     </row>
     <row r="41" spans="2:15">
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="51" t="s">
         <v>310</v>
       </c>
-      <c r="C41" s="47"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="10" t="s">
         <v>313</v>
       </c>
@@ -5490,10 +5479,10 @@
       </c>
     </row>
     <row r="42" spans="2:15">
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="51" t="s">
         <v>311</v>
       </c>
-      <c r="C42" s="47"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="10" t="s">
         <v>313</v>
       </c>
@@ -5502,125 +5491,123 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="17.25">
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="71" t="s">
         <v>320</v>
       </c>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="71"/>
     </row>
     <row r="45" spans="2:15">
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="70" t="s">
         <v>321</v>
       </c>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
+      <c r="C45" s="70"/>
+      <c r="D45" s="70"/>
       <c r="E45" s="13" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="46" spans="2:15">
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="10" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="51" t="s">
+        <v>331</v>
+      </c>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15">
-      <c r="B47" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15">
-      <c r="B48" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="C48" s="47"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15">
-      <c r="B49" s="47" t="s">
-        <v>332</v>
-      </c>
-      <c r="C49" s="47"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="10" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="50" spans="2:15">
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="51" t="s">
         <v>333</v>
       </c>
-      <c r="C50" s="47"/>
-      <c r="D50" s="47"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
       <c r="E50" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="51" spans="2:15">
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="51" t="s">
         <v>334</v>
       </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="47"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
       <c r="E51" s="10" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="52" spans="2:15">
-      <c r="B52" s="47" t="s">
-        <v>335</v>
-      </c>
-      <c r="C52" s="47"/>
-      <c r="D52" s="47"/>
+      <c r="B52" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
       <c r="E52" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="2:15">
-      <c r="B53" s="47" t="s">
-        <v>327</v>
-      </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
+      <c r="B53" s="51" t="s">
+        <v>329</v>
+      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
       <c r="E53" s="10" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="54" spans="2:15">
-      <c r="B54" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="47"/>
+      <c r="B54" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
       <c r="E54" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15">
-      <c r="B55" s="47" t="s">
         <v>336</v>
       </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="10" t="s">
-        <v>337</v>
-      </c>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
     </row>
     <row r="62" spans="2:15">
-      <c r="J62" s="11"/>
+      <c r="J62" s="40"/>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
@@ -5628,38 +5615,21 @@
       <c r="O62" s="11"/>
     </row>
     <row r="63" spans="2:15">
-      <c r="J63" s="40"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
     </row>
-    <row r="64" spans="2:15">
-      <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
+  <mergeCells count="42">
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B22:R23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="H26:N26"/>
     <mergeCell ref="B36:C36"/>
@@ -5676,15 +5646,23 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B22:R23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5706,30 +5684,30 @@
   <sheetData>
     <row r="1" spans="2:13" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:13">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="60"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="2:13" ht="17.25" thickBot="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="69"/>
       <c r="M3" s="8" t="s">
         <v>4</v>
       </c>
@@ -5745,91 +5723,102 @@
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="68" t="s">
+      <c r="B28" s="72" t="s">
         <v>264</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68" t="s">
+      <c r="C28" s="72"/>
+      <c r="D28" s="72" t="s">
         <v>274</v>
       </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68" t="s">
+      <c r="E28" s="72"/>
+      <c r="F28" s="72" t="s">
         <v>272</v>
       </c>
-      <c r="G28" s="68"/>
+      <c r="G28" s="72"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="51" t="s">
         <v>266</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47" t="s">
+      <c r="C29" s="51"/>
+      <c r="D29" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47" t="s">
+      <c r="E29" s="51"/>
+      <c r="F29" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="G29" s="47"/>
+      <c r="G29" s="51"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="47" t="s">
+      <c r="B30" s="51" t="s">
         <v>267</v>
       </c>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47" t="s">
+      <c r="C30" s="51"/>
+      <c r="D30" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47">
+      <c r="E30" s="51"/>
+      <c r="F30" s="51">
         <v>100</v>
       </c>
-      <c r="G30" s="47"/>
+      <c r="G30" s="51"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47" t="s">
+      <c r="C31" s="51"/>
+      <c r="D31" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47">
+      <c r="E31" s="51"/>
+      <c r="F31" s="51">
         <v>1</v>
       </c>
-      <c r="G31" s="47"/>
+      <c r="G31" s="51"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="47" t="s">
+      <c r="B32" s="51" t="s">
         <v>269</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47" t="s">
+      <c r="C32" s="51"/>
+      <c r="D32" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47" t="s">
+      <c r="E32" s="51"/>
+      <c r="F32" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="G32" s="47"/>
+      <c r="G32" s="51"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47" t="s">
+      <c r="C33" s="51"/>
+      <c r="D33" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47">
+      <c r="E33" s="51"/>
+      <c r="F33" s="51">
         <v>1</v>
       </c>
-      <c r="G33" s="47"/>
+      <c r="G33" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
@@ -5838,17 +5827,6 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5860,7 +5838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CB53AE-5AC2-4C7D-A97E-6ABFB05675E9}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -5901,26 +5879,26 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
     </row>
     <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="16"/>
@@ -6078,7 +6056,7 @@
       <c r="B10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="41" t="s">
         <v>140</v>
       </c>
       <c r="D10" s="29">
@@ -6105,7 +6083,7 @@
       <c r="B11" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="41" t="s">
         <v>161</v>
       </c>
       <c r="D11" s="29">
@@ -6132,7 +6110,7 @@
       <c r="B12" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="41" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="29">
@@ -6159,7 +6137,7 @@
       <c r="B13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="41" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="29">
@@ -6186,7 +6164,7 @@
       <c r="B14" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="41" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="29">
@@ -6213,7 +6191,7 @@
       <c r="B15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="41" t="s">
         <v>141</v>
       </c>
       <c r="D15" s="29">
@@ -6240,7 +6218,7 @@
       <c r="B16" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="41" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="29">
@@ -6269,7 +6247,7 @@
       <c r="B17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="41" t="s">
         <v>177</v>
       </c>
       <c r="D17" s="29">
@@ -6296,7 +6274,7 @@
       <c r="B18" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="41" t="s">
         <v>223</v>
       </c>
       <c r="D18" s="29">
@@ -6325,7 +6303,7 @@
       <c r="B19" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="41" t="s">
         <v>144</v>
       </c>
       <c r="D19" s="29">
@@ -6350,7 +6328,7 @@
       <c r="B20" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="41" t="s">
         <v>145</v>
       </c>
       <c r="D20" s="29">
@@ -6375,7 +6353,7 @@
       <c r="B21" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="41" t="s">
         <v>162</v>
       </c>
       <c r="D21" s="29">
@@ -6400,7 +6378,7 @@
       <c r="B22" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="41" t="s">
         <v>165</v>
       </c>
       <c r="D22" s="29">
@@ -6425,7 +6403,7 @@
       <c r="B23" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="41" t="s">
         <v>167</v>
       </c>
       <c r="D23" s="29">
@@ -6450,7 +6428,7 @@
       <c r="B24" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="41" t="s">
         <v>168</v>
       </c>
       <c r="D24" s="29">
@@ -6475,7 +6453,7 @@
       <c r="B25" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="41" t="s">
         <v>169</v>
       </c>
       <c r="D25" s="29">
@@ -6503,7 +6481,7 @@
       <c r="B26" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="41" t="s">
         <v>170</v>
       </c>
       <c r="D26" s="29">
@@ -6528,7 +6506,7 @@
       <c r="B27" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="41" t="s">
         <v>171</v>
       </c>
       <c r="D27" s="29">
@@ -6553,7 +6531,7 @@
       <c r="B28" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="41" t="s">
         <v>172</v>
       </c>
       <c r="D28" s="29">
@@ -6578,7 +6556,7 @@
       <c r="B29" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="41" t="s">
         <v>173</v>
       </c>
       <c r="D29" s="29">
@@ -6603,7 +6581,7 @@
       <c r="B30" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="41" t="s">
         <v>174</v>
       </c>
       <c r="D30" s="29">
@@ -6628,7 +6606,7 @@
       <c r="B31" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="41" t="s">
         <v>175</v>
       </c>
       <c r="D31" s="29">
@@ -6727,22 +6705,22 @@
   <sheetData>
     <row r="1" spans="2:7" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:7" ht="16.5" customHeight="1">
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="66"/>
     </row>
     <row r="3" spans="2:7" ht="17.25" customHeight="1" thickBot="1">
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
     </row>
     <row r="5" spans="2:7" ht="20.25">
       <c r="B5" s="21" t="s">
@@ -6754,7 +6732,7 @@
       <c r="D5" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="70" t="s">
+      <c r="E5" s="42" t="s">
         <v>195</v>
       </c>
       <c r="F5" s="21" t="s">
@@ -6931,16 +6909,16 @@
   <sheetData>
     <row r="1" spans="2:4" ht="17.25" thickBot="1"/>
     <row r="2" spans="2:4">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="2:4" ht="17.25" thickBot="1">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="5" spans="2:4" ht="20.25">
       <c r="B5" s="21" t="s">

--- a/Document/6_Axis_Robot.xlsx
+++ b/Document/6_Axis_Robot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KkangJun\Desktop\Project\6_Axis_Robot\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8AF018-90B9-49F4-BCD6-09623A919B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358DA1E7-4839-4882-9185-4340E953DFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-3010" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{D34C6C17-2872-4C3C-BCF1-01C0C1309478}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{D34C6C17-2872-4C3C-BCF1-01C0C1309478}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
@@ -2085,57 +2085,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2154,6 +2154,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2161,12 +2167,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4254,7 +4254,7 @@
         <v>356</v>
       </c>
       <c r="C45" s="46"/>
-      <c r="D45" s="63" t="s">
+      <c r="D45" s="47" t="s">
         <v>260</v>
       </c>
       <c r="E45" s="48"/>
@@ -4292,7 +4292,7 @@
         <v>357</v>
       </c>
       <c r="C46" s="46"/>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="63" t="s">
         <v>337</v>
       </c>
       <c r="E46" s="48"/>
@@ -4327,53 +4327,6 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:AG45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:AG40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:AG41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:AG44"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:AG32"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:AG36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:AG35"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:AG39"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:AG33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:AG34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:AG38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:AG37"/>
-    <mergeCell ref="D22:AG22"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:AG30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:AG31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:AG24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:AG25"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:AG23"/>
-    <mergeCell ref="B2:AG3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="B18:AG18"/>
-    <mergeCell ref="D19:AG19"/>
-    <mergeCell ref="D20:AG20"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="AE4:AF4"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:AG46"/>
     <mergeCell ref="B21:C21"/>
@@ -4390,6 +4343,53 @@
     <mergeCell ref="D26:AG26"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:AG27"/>
+    <mergeCell ref="B2:AG3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="B18:AG18"/>
+    <mergeCell ref="D19:AG19"/>
+    <mergeCell ref="D20:AG20"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="D22:AG22"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:AG30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:AG31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:AG24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:AG25"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:AG23"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:AG39"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:AG33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:AG34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:AG38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:AG37"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:AG32"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:AG36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:AG35"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:AG45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:AG40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:AG41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:AG44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4557,8 +4557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BDA344-E122-4C79-B3A0-906C429AA8A5}">
   <dimension ref="B1:T63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4663,7 +4663,7 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="70" t="s">
         <v>61</v>
       </c>
       <c r="C6" s="13" t="s">
@@ -4698,7 +4698,7 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="33">
-      <c r="B7" s="74"/>
+      <c r="B7" s="71"/>
       <c r="C7" s="13" t="s">
         <v>66</v>
       </c>
@@ -4733,7 +4733,7 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="72" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="13" t="s">
@@ -4771,7 +4771,7 @@
       <c r="S8" s="35"/>
     </row>
     <row r="9" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="70"/>
+      <c r="B9" s="72"/>
       <c r="C9" s="13" t="s">
         <v>70</v>
       </c>
@@ -4809,7 +4809,7 @@
       <c r="S9" s="35"/>
     </row>
     <row r="10" spans="2:19" ht="33">
-      <c r="B10" s="70"/>
+      <c r="B10" s="72"/>
       <c r="C10" s="13" t="s">
         <v>196</v>
       </c>
@@ -4844,7 +4844,7 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="33" customHeight="1">
-      <c r="B11" s="70"/>
+      <c r="B11" s="72"/>
       <c r="C11" s="13" t="s">
         <v>67</v>
       </c>
@@ -4883,7 +4883,7 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="33" customHeight="1">
-      <c r="B12" s="70"/>
+      <c r="B12" s="72"/>
       <c r="C12" s="13" t="s">
         <v>68</v>
       </c>
@@ -4918,7 +4918,7 @@
       </c>
     </row>
     <row r="13" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="72" t="s">
         <v>64</v>
       </c>
       <c r="C13" s="13" t="s">
@@ -4949,7 +4949,7 @@
       </c>
     </row>
     <row r="14" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="70"/>
+      <c r="B14" s="72"/>
       <c r="C14" s="13" t="s">
         <v>72</v>
       </c>
@@ -4976,7 +4976,7 @@
       </c>
     </row>
     <row r="15" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="70"/>
+      <c r="B15" s="72"/>
       <c r="C15" s="13" t="s">
         <v>73</v>
       </c>
@@ -5003,7 +5003,7 @@
       </c>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="70"/>
+      <c r="B16" s="72"/>
       <c r="C16" s="13" t="s">
         <v>74</v>
       </c>
@@ -5030,7 +5030,7 @@
       </c>
     </row>
     <row r="17" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="72" t="s">
         <v>63</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -5057,7 +5057,7 @@
       </c>
     </row>
     <row r="18" spans="2:20" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="70"/>
+      <c r="B18" s="72"/>
       <c r="C18" s="13" t="s">
         <v>76</v>
       </c>
@@ -5174,44 +5174,44 @@
       <c r="R24" s="16"/>
     </row>
     <row r="25" spans="2:20" ht="17.25">
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="C26" s="70"/>
+      <c r="C26" s="72"/>
       <c r="D26" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E26" s="70" t="s">
+      <c r="E26" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70" t="s">
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="51" t="s">
@@ -5396,18 +5396,18 @@
       <c r="O34" s="11"/>
     </row>
     <row r="35" spans="2:15">
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="74" t="s">
         <v>302</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
+      <c r="C35" s="74"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="70" t="s">
+      <c r="B36" s="72" t="s">
         <v>304</v>
       </c>
-      <c r="C36" s="70"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="13" t="s">
         <v>305</v>
       </c>
@@ -5491,19 +5491,19 @@
       </c>
     </row>
     <row r="44" spans="2:15" ht="17.25">
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="73" t="s">
         <v>320</v>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
     </row>
     <row r="45" spans="2:15">
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="72" t="s">
         <v>321</v>
       </c>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
       <c r="E45" s="13" t="s">
         <v>285</v>
       </c>
@@ -5621,15 +5621,23 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B2:R3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B22:R23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="H26:N26"/>
     <mergeCell ref="B36:C36"/>
@@ -5646,23 +5654,15 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B2:R3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B22:R23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5723,18 +5723,18 @@
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72" t="s">
+      <c r="C28" s="74"/>
+      <c r="D28" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72" t="s">
+      <c r="E28" s="74"/>
+      <c r="F28" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="G28" s="72"/>
+      <c r="G28" s="74"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="51" t="s">
@@ -5808,13 +5808,10 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B2:K3"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
     <mergeCell ref="D32:E32"/>
@@ -5823,10 +5820,13 @@
     <mergeCell ref="F31:G31"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="F33:G33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B2:K3"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="D29:E29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5863,7 +5863,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6690,8 +6690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE5D3ED-8862-4F50-BA6B-7C9BAEC485AB}">
   <dimension ref="B1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
